--- a/Data_clean/MCAS/Estados_US/Edos_USA_2015/WISCONSIN_2015.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2015/WISCONSIN_2015.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1395"/>
+  <dimension ref="A1:D1389"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -439,7 +439,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C6">
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>San José de Gracia</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C8">
@@ -535,7 +535,7 @@
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t>Playas de Rosarito</t>
+          <t>Playas De Rosarito</t>
         </is>
       </c>
       <c r="C13">
@@ -771,7 +771,7 @@
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C30">
@@ -849,7 +849,7 @@
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C36">
@@ -888,7 +888,7 @@
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C39">
@@ -1083,7 +1083,7 @@
     <row r="54">
       <c r="B54" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C54">
@@ -1161,7 +1161,7 @@
     <row r="60">
       <c r="B60" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C60">
@@ -1491,7 +1491,7 @@
     <row r="85">
       <c r="B85" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C85">
@@ -1517,7 +1517,7 @@
     <row r="87">
       <c r="B87" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C87">
@@ -1660,7 +1660,7 @@
     <row r="98">
       <c r="B98" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C98">
@@ -1725,7 +1725,7 @@
     <row r="103">
       <c r="B103" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C103">
@@ -1951,7 +1951,7 @@
     <row r="120">
       <c r="B120" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C120">
@@ -2086,7 +2086,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -2143,7 +2143,7 @@
     <row r="134">
       <c r="B134" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C134">
@@ -2330,7 +2330,7 @@
     <row r="148">
       <c r="B148" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C148">
@@ -2486,7 +2486,7 @@
     <row r="160">
       <c r="B160" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C160">
@@ -2538,7 +2538,7 @@
     <row r="164">
       <c r="B164" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C164">
@@ -2629,7 +2629,7 @@
     <row r="171">
       <c r="B171" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C171">
@@ -2642,7 +2642,7 @@
     <row r="172">
       <c r="B172" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C172">
@@ -2759,13 +2759,12 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t xml:space="preserve">Estado de México_x000D_
-</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C181">
@@ -2804,7 +2803,7 @@
     <row r="184">
       <c r="B184" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C184">
@@ -2817,7 +2816,7 @@
     <row r="185">
       <c r="B185" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C185">
@@ -2830,7 +2829,7 @@
     <row r="186">
       <c r="B186" t="inlineStr">
         <is>
-          <t>Almoloya del Río</t>
+          <t>Almoloya Del Río</t>
         </is>
       </c>
       <c r="C186">
@@ -2895,7 +2894,7 @@
     <row r="191">
       <c r="B191" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C191">
@@ -2973,7 +2972,7 @@
     <row r="197">
       <c r="B197" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C197">
@@ -3012,7 +3011,7 @@
     <row r="200">
       <c r="B200" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C200">
@@ -3090,7 +3089,7 @@
     <row r="206">
       <c r="B206" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C206">
@@ -3155,7 +3154,7 @@
     <row r="211">
       <c r="B211" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C211">
@@ -3168,7 +3167,7 @@
     <row r="212">
       <c r="B212" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C212">
@@ -3188,7 +3187,7 @@
         <v>13</v>
       </c>
       <c r="D213">
-        <v>0.0009210060219624513</v>
+        <v>0.0009210060219624512</v>
       </c>
     </row>
     <row r="214">
@@ -3324,7 +3323,7 @@
     <row r="224">
       <c r="B224" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C224">
@@ -3428,7 +3427,7 @@
     <row r="232">
       <c r="B232" t="inlineStr">
         <is>
-          <t>San Antonio la Isla</t>
+          <t>San Antonio La Isla</t>
         </is>
       </c>
       <c r="C232">
@@ -3441,7 +3440,7 @@
     <row r="233">
       <c r="B233" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C233">
@@ -3454,7 +3453,7 @@
     <row r="234">
       <c r="B234" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C234">
@@ -3480,7 +3479,7 @@
     <row r="236">
       <c r="B236" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C236">
@@ -3584,7 +3583,7 @@
     <row r="244">
       <c r="B244" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C244">
@@ -3714,7 +3713,7 @@
     <row r="254">
       <c r="B254" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C254">
@@ -3779,7 +3778,7 @@
     <row r="259">
       <c r="B259" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C259">
@@ -3792,7 +3791,7 @@
     <row r="260">
       <c r="B260" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C260">
@@ -3805,7 +3804,7 @@
     <row r="261">
       <c r="B261" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C261">
@@ -3818,7 +3817,7 @@
     <row r="262">
       <c r="B262" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C262">
@@ -3838,7 +3837,7 @@
         <v>13</v>
       </c>
       <c r="D263">
-        <v>0.0009210060219624513</v>
+        <v>0.0009210060219624512</v>
       </c>
     </row>
     <row r="264">
@@ -3916,7 +3915,7 @@
         <v>1368</v>
       </c>
       <c r="D269">
-        <v>0.09691817215727949</v>
+        <v>0.09691817215727948</v>
       </c>
     </row>
     <row r="270">
@@ -3953,7 +3952,7 @@
     <row r="272">
       <c r="B272" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C272">
@@ -3966,7 +3965,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C273">
@@ -3979,7 +3978,7 @@
     <row r="274">
       <c r="B274" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C274">
@@ -4083,7 +4082,7 @@
     <row r="282">
       <c r="B282" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C282">
@@ -4135,7 +4134,7 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C286">
@@ -4239,7 +4238,7 @@
     <row r="294">
       <c r="B294" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C294">
@@ -4291,7 +4290,7 @@
     <row r="298">
       <c r="B298" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C298">
@@ -4317,7 +4316,7 @@
     <row r="300">
       <c r="B300" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C300">
@@ -4343,7 +4342,7 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C302">
@@ -4356,7 +4355,7 @@
     <row r="303">
       <c r="B303" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C303">
@@ -4382,7 +4381,7 @@
     <row r="305">
       <c r="B305" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C305">
@@ -4447,7 +4446,7 @@
     <row r="310">
       <c r="B310" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C310">
@@ -4517,7 +4516,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C315">
@@ -4543,7 +4542,7 @@
     <row r="317">
       <c r="B317" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C317">
@@ -4556,7 +4555,7 @@
     <row r="318">
       <c r="B318" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C318">
@@ -4595,7 +4594,7 @@
     <row r="321">
       <c r="B321" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C321">
@@ -4621,7 +4620,7 @@
     <row r="323">
       <c r="B323" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C323">
@@ -4634,7 +4633,7 @@
     <row r="324">
       <c r="B324" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C324">
@@ -4673,7 +4672,7 @@
     <row r="327">
       <c r="B327" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C327">
@@ -4686,7 +4685,7 @@
     <row r="328">
       <c r="B328" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C328">
@@ -4699,7 +4698,7 @@
     <row r="329">
       <c r="B329" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C329">
@@ -4712,7 +4711,7 @@
     <row r="330">
       <c r="B330" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C330">
@@ -4764,7 +4763,7 @@
     <row r="334">
       <c r="B334" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C334">
@@ -4777,14 +4776,14 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C335">
         <v>13</v>
       </c>
       <c r="D335">
-        <v>0.0009210060219624513</v>
+        <v>0.0009210060219624512</v>
       </c>
     </row>
     <row r="336">
@@ -4816,7 +4815,7 @@
     <row r="338">
       <c r="B338" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C338">
@@ -4829,7 +4828,7 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C339">
@@ -4894,7 +4893,7 @@
     <row r="344">
       <c r="B344" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C344">
@@ -4907,7 +4906,7 @@
     <row r="345">
       <c r="B345" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C345">
@@ -4933,7 +4932,7 @@
     <row r="347">
       <c r="B347" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C347">
@@ -4972,7 +4971,7 @@
     <row r="350">
       <c r="B350" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C350">
@@ -5141,7 +5140,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C363">
@@ -5167,7 +5166,7 @@
     <row r="365">
       <c r="B365" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C365">
@@ -5193,7 +5192,7 @@
     <row r="367">
       <c r="B367" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C367">
@@ -5219,7 +5218,7 @@
     <row r="369">
       <c r="B369" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C369">
@@ -5271,7 +5270,7 @@
     <row r="373">
       <c r="B373" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C373">
@@ -5284,7 +5283,7 @@
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C374">
@@ -5445,7 +5444,7 @@
     <row r="386">
       <c r="B386" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C386">
@@ -5458,7 +5457,7 @@
     <row r="387">
       <c r="B387" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C387">
@@ -5497,7 +5496,7 @@
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C390">
@@ -5536,7 +5535,7 @@
     <row r="393">
       <c r="B393" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C393">
@@ -5575,7 +5574,7 @@
     <row r="396">
       <c r="B396" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C396">
@@ -5653,7 +5652,7 @@
     <row r="402">
       <c r="B402" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C402">
@@ -5666,7 +5665,7 @@
     <row r="403">
       <c r="B403" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C403">
@@ -5692,7 +5691,7 @@
     <row r="405">
       <c r="B405" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C405">
@@ -5705,7 +5704,7 @@
     <row r="406">
       <c r="B406" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C406">
@@ -5757,7 +5756,7 @@
     <row r="410">
       <c r="B410" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C410">
@@ -5809,7 +5808,7 @@
     <row r="414">
       <c r="B414" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C414">
@@ -5835,7 +5834,7 @@
     <row r="416">
       <c r="B416" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C416">
@@ -5848,7 +5847,7 @@
     <row r="417">
       <c r="B417" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C417">
@@ -5861,7 +5860,7 @@
     <row r="418">
       <c r="B418" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C418">
@@ -5939,7 +5938,7 @@
     <row r="424">
       <c r="B424" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C424">
@@ -5952,7 +5951,7 @@
     <row r="425">
       <c r="B425" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C425">
@@ -5965,7 +5964,7 @@
     <row r="426">
       <c r="B426" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C426">
@@ -6022,7 +6021,7 @@
     <row r="430">
       <c r="B430" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C430">
@@ -6035,7 +6034,7 @@
     <row r="431">
       <c r="B431" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C431">
@@ -6087,7 +6086,7 @@
     <row r="435">
       <c r="B435" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C435">
@@ -6113,7 +6112,7 @@
     <row r="437">
       <c r="B437" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C437">
@@ -6139,7 +6138,7 @@
     <row r="439">
       <c r="B439" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C439">
@@ -6308,7 +6307,7 @@
     <row r="452">
       <c r="B452" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C452">
@@ -6373,7 +6372,7 @@
     <row r="457">
       <c r="B457" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C457">
@@ -6386,7 +6385,7 @@
     <row r="458">
       <c r="B458" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C458">
@@ -6438,7 +6437,7 @@
     <row r="462">
       <c r="B462" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C462">
@@ -6516,7 +6515,7 @@
     <row r="468">
       <c r="B468" t="inlineStr">
         <is>
-          <t>La Manzanilla de la Paz</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C468">
@@ -6529,7 +6528,7 @@
     <row r="469">
       <c r="B469" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C469">
@@ -6607,7 +6606,7 @@
     <row r="475">
       <c r="B475" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C475">
@@ -6672,7 +6671,7 @@
     <row r="480">
       <c r="B480" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C480">
@@ -6698,7 +6697,7 @@
     <row r="482">
       <c r="B482" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C482">
@@ -6711,7 +6710,7 @@
     <row r="483">
       <c r="B483" t="inlineStr">
         <is>
-          <t>San Juanito de Escobedo</t>
+          <t>San Juanito De Escobedo</t>
         </is>
       </c>
       <c r="C483">
@@ -6737,7 +6736,7 @@
     <row r="485">
       <c r="B485" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C485">
@@ -6750,7 +6749,7 @@
     <row r="486">
       <c r="B486" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C486">
@@ -6763,7 +6762,7 @@
     <row r="487">
       <c r="B487" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C487">
@@ -6796,13 +6795,13 @@
         <v>13</v>
       </c>
       <c r="D489">
-        <v>0.0009210060219624513</v>
+        <v>0.0009210060219624512</v>
       </c>
     </row>
     <row r="490">
       <c r="B490" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C490">
@@ -6815,7 +6814,7 @@
     <row r="491">
       <c r="B491" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C491">
@@ -6893,7 +6892,7 @@
     <row r="497">
       <c r="B497" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C497">
@@ -6906,7 +6905,7 @@
     <row r="498">
       <c r="B498" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C498">
@@ -6945,7 +6944,7 @@
     <row r="501">
       <c r="B501" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C501">
@@ -6958,7 +6957,7 @@
     <row r="502">
       <c r="B502" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C502">
@@ -7049,7 +7048,7 @@
     <row r="509">
       <c r="B509" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C509">
@@ -7062,7 +7061,7 @@
     <row r="510">
       <c r="B510" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C510">
@@ -7075,7 +7074,7 @@
     <row r="511">
       <c r="B511" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C511">
@@ -7127,7 +7126,7 @@
     <row r="515">
       <c r="B515" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C515">
@@ -7140,7 +7139,7 @@
     <row r="516">
       <c r="B516" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C516">
@@ -7166,7 +7165,7 @@
     <row r="518">
       <c r="B518" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C518">
@@ -7179,7 +7178,7 @@
     <row r="519">
       <c r="B519" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C519">
@@ -7444,7 +7443,7 @@
     <row r="539">
       <c r="B539" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C539">
@@ -8036,7 +8035,7 @@
         <v>13</v>
       </c>
       <c r="D584">
-        <v>0.0009210060219624513</v>
+        <v>0.0009210060219624512</v>
       </c>
     </row>
     <row r="585">
@@ -8457,7 +8456,7 @@
         <v>13</v>
       </c>
       <c r="D616">
-        <v>0.0009210060219624513</v>
+        <v>0.0009210060219624512</v>
       </c>
     </row>
     <row r="617">
@@ -8580,7 +8579,7 @@
     <row r="626">
       <c r="B626" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C626">
@@ -8632,7 +8631,7 @@
     <row r="630">
       <c r="B630" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C630">
@@ -8645,7 +8644,7 @@
     <row r="631">
       <c r="B631" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C631">
@@ -8736,7 +8735,7 @@
     <row r="638">
       <c r="B638" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C638">
@@ -8780,7 +8779,7 @@
     <row r="641">
       <c r="B641" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C641">
@@ -8819,7 +8818,7 @@
     <row r="644">
       <c r="B644" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C644">
@@ -9136,7 +9135,7 @@
     <row r="668">
       <c r="B668" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C668">
@@ -9193,7 +9192,7 @@
     <row r="672">
       <c r="B672" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C672">
@@ -9245,7 +9244,7 @@
     <row r="676">
       <c r="B676" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C676">
@@ -9297,7 +9296,7 @@
     <row r="680">
       <c r="B680" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C680">
@@ -9310,7 +9309,7 @@
     <row r="681">
       <c r="B681" t="inlineStr">
         <is>
-          <t>Chiquihuitlán de Benito Juárez</t>
+          <t>Chiquihuitlán De Benito Juárez</t>
         </is>
       </c>
       <c r="C681">
@@ -9349,7 +9348,7 @@
     <row r="684">
       <c r="B684" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C684">
@@ -9388,7 +9387,7 @@
     <row r="687">
       <c r="B687" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerrero</t>
+          <t>Cuilápam De Guerrero</t>
         </is>
       </c>
       <c r="C687">
@@ -9414,7 +9413,7 @@
     <row r="689">
       <c r="B689" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C689">
@@ -9427,20 +9426,20 @@
     <row r="690">
       <c r="B690" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C690">
         <v>13</v>
       </c>
       <c r="D690">
-        <v>0.0009210060219624513</v>
+        <v>0.0009210060219624512</v>
       </c>
     </row>
     <row r="691">
       <c r="B691" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C691">
@@ -9466,7 +9465,7 @@
     <row r="693">
       <c r="B693" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C693">
@@ -9479,7 +9478,7 @@
     <row r="694">
       <c r="B694" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C694">
@@ -9570,7 +9569,7 @@
     <row r="701">
       <c r="B701" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C701">
@@ -9609,7 +9608,7 @@
     <row r="704">
       <c r="B704" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C704">
@@ -9648,7 +9647,7 @@
     <row r="707">
       <c r="B707" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C707">
@@ -9661,7 +9660,7 @@
     <row r="708">
       <c r="B708" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C708">
@@ -9674,7 +9673,7 @@
     <row r="709">
       <c r="B709" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C709">
@@ -9687,7 +9686,7 @@
     <row r="710">
       <c r="B710" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C710">
@@ -9713,7 +9712,7 @@
     <row r="712">
       <c r="B712" t="inlineStr">
         <is>
-          <t>Rojas de Cuauhtémoc</t>
+          <t>Rojas De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C712">
@@ -9882,7 +9881,7 @@
     <row r="725">
       <c r="B725" t="inlineStr">
         <is>
-          <t>San Baltazar Yatzachi el Bajo</t>
+          <t>San Baltazar Yatzachi El Bajo</t>
         </is>
       </c>
       <c r="C725">
@@ -9986,7 +9985,7 @@
     <row r="733">
       <c r="B733" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C733">
@@ -10155,7 +10154,7 @@
     <row r="746">
       <c r="B746" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C746">
@@ -10272,7 +10271,7 @@
     <row r="755">
       <c r="B755" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C755">
@@ -10422,7 +10421,7 @@
         <v>13</v>
       </c>
       <c r="D766">
-        <v>0.0009210060219624513</v>
+        <v>0.0009210060219624512</v>
       </c>
     </row>
     <row r="767">
@@ -10688,7 +10687,7 @@
     <row r="787">
       <c r="B787" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C787">
@@ -10701,7 +10700,7 @@
     <row r="788">
       <c r="B788" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C788">
@@ -10883,7 +10882,7 @@
     <row r="802">
       <c r="B802" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C802">
@@ -11013,7 +11012,7 @@
     <row r="812">
       <c r="B812" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Ayutla</t>
+          <t>San Pedro Y San Pablo Ayutla</t>
         </is>
       </c>
       <c r="C812">
@@ -11026,7 +11025,7 @@
     <row r="813">
       <c r="B813" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C813">
@@ -11221,7 +11220,7 @@
     <row r="828">
       <c r="B828" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C828">
@@ -11260,7 +11259,7 @@
     <row r="831">
       <c r="B831" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C831">
@@ -11351,7 +11350,7 @@
     <row r="838">
       <c r="B838" t="inlineStr">
         <is>
-          <t>Santa María del Tule</t>
+          <t>Santa María Del Tule</t>
         </is>
       </c>
       <c r="C838">
@@ -11397,7 +11396,7 @@
         <v>13</v>
       </c>
       <c r="D841">
-        <v>0.0009210060219624513</v>
+        <v>0.0009210060219624512</v>
       </c>
     </row>
     <row r="842">
@@ -11416,7 +11415,7 @@
     <row r="843">
       <c r="B843" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C843">
@@ -11923,7 +11922,7 @@
     <row r="882">
       <c r="B882" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C882">
@@ -12053,7 +12052,7 @@
     <row r="892">
       <c r="B892" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C892">
@@ -12066,7 +12065,7 @@
     <row r="893">
       <c r="B893" t="inlineStr">
         <is>
-          <t>Tanetze de Zaragoza</t>
+          <t>Tanetze De Zaragoza</t>
         </is>
       </c>
       <c r="C893">
@@ -12079,7 +12078,7 @@
     <row r="894">
       <c r="B894" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C894">
@@ -12092,7 +12091,7 @@
     <row r="895">
       <c r="B895" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C895">
@@ -12118,7 +12117,7 @@
     <row r="897">
       <c r="B897" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C897">
@@ -12131,7 +12130,7 @@
     <row r="898">
       <c r="B898" t="inlineStr">
         <is>
-          <t>Tlalixtac de Cabrera</t>
+          <t>Tlalixtac De Cabrera</t>
         </is>
       </c>
       <c r="C898">
@@ -12144,7 +12143,7 @@
     <row r="899">
       <c r="B899" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C899">
@@ -12170,7 +12169,7 @@
     <row r="901">
       <c r="B901" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C901">
@@ -12183,7 +12182,7 @@
     <row r="902">
       <c r="B902" t="inlineStr">
         <is>
-          <t>Villa de Tamazulápam del Progreso</t>
+          <t>Villa De Tamazulápam Del Progreso</t>
         </is>
       </c>
       <c r="C902">
@@ -12196,7 +12195,7 @@
     <row r="903">
       <c r="B903" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C903">
@@ -12209,7 +12208,7 @@
     <row r="904">
       <c r="B904" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C904">
@@ -12248,7 +12247,7 @@
     <row r="907">
       <c r="B907" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C907">
@@ -12261,7 +12260,7 @@
     <row r="908">
       <c r="B908" t="inlineStr">
         <is>
-          <t>Villa Talea de Castro</t>
+          <t>Villa Talea De Castro</t>
         </is>
       </c>
       <c r="C908">
@@ -12274,7 +12273,7 @@
     <row r="909">
       <c r="B909" t="inlineStr">
         <is>
-          <t>Villa Tejúpam de la Unión</t>
+          <t>Villa Tejúpam De La Unión</t>
         </is>
       </c>
       <c r="C909">
@@ -12300,7 +12299,7 @@
     <row r="911">
       <c r="B911" t="inlineStr">
         <is>
-          <t>Yutanduchi de Guerrero</t>
+          <t>Yutanduchi De Guerrero</t>
         </is>
       </c>
       <c r="C911">
@@ -12352,7 +12351,7 @@
     <row r="915">
       <c r="B915" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C915">
@@ -12591,7 +12590,7 @@
     <row r="933">
       <c r="B933" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C933">
@@ -12877,7 +12876,7 @@
     <row r="955">
       <c r="B955" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C955">
@@ -12890,7 +12889,7 @@
     <row r="956">
       <c r="B956" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C956">
@@ -12968,7 +12967,7 @@
     <row r="962">
       <c r="B962" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C962">
@@ -13072,7 +13071,7 @@
     <row r="970">
       <c r="B970" t="inlineStr">
         <is>
-          <t>Mazapiltepec de Juárez</t>
+          <t>Mazapiltepec De Juárez</t>
         </is>
       </c>
       <c r="C970">
@@ -13144,7 +13143,7 @@
         <v>132</v>
       </c>
       <c r="D975">
-        <v>0.009351753453772583</v>
+        <v>0.009351753453772585</v>
       </c>
     </row>
     <row r="976">
@@ -13176,7 +13175,7 @@
     <row r="978">
       <c r="B978" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C978">
@@ -13345,7 +13344,7 @@
     <row r="991">
       <c r="B991" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C991">
@@ -13384,7 +13383,7 @@
     <row r="994">
       <c r="B994" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C994">
@@ -13397,7 +13396,7 @@
     <row r="995">
       <c r="B995" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C995">
@@ -13540,7 +13539,7 @@
     <row r="1006">
       <c r="B1006" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C1006">
@@ -13605,7 +13604,7 @@
     <row r="1011">
       <c r="B1011" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C1011">
@@ -13631,7 +13630,7 @@
     <row r="1013">
       <c r="B1013" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C1013">
@@ -13644,7 +13643,7 @@
     <row r="1014">
       <c r="B1014" t="inlineStr">
         <is>
-          <t>Teteles de Avila Castillo</t>
+          <t>Teteles De Avila Castillo</t>
         </is>
       </c>
       <c r="C1014">
@@ -13696,7 +13695,7 @@
     <row r="1018">
       <c r="B1018" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C1018">
@@ -13961,7 +13960,7 @@
       </c>
       <c r="B1038" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C1038">
@@ -13987,7 +13986,7 @@
     <row r="1040">
       <c r="B1040" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C1040">
@@ -14039,7 +14038,7 @@
     <row r="1044">
       <c r="B1044" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C1044">
@@ -14052,7 +14051,7 @@
     <row r="1045">
       <c r="B1045" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C1045">
@@ -14078,7 +14077,7 @@
     <row r="1047">
       <c r="B1047" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1047">
@@ -14192,7 +14191,7 @@
     <row r="1055">
       <c r="B1055" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C1055">
@@ -14231,7 +14230,7 @@
     <row r="1058">
       <c r="B1058" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C1058">
@@ -14322,7 +14321,7 @@
     <row r="1065">
       <c r="B1065" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C1065">
@@ -14413,7 +14412,7 @@
     <row r="1072">
       <c r="B1072" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1072">
@@ -14478,7 +14477,7 @@
     <row r="1077">
       <c r="B1077" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C1077">
@@ -14491,7 +14490,7 @@
     <row r="1078">
       <c r="B1078" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C1078">
@@ -14504,7 +14503,7 @@
     <row r="1079">
       <c r="B1079" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1079">
@@ -14517,7 +14516,7 @@
     <row r="1080">
       <c r="B1080" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C1080">
@@ -14891,7 +14890,7 @@
     <row r="1108">
       <c r="B1108" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C1108">
@@ -15065,7 +15064,7 @@
     <row r="1121">
       <c r="B1121" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1121">
@@ -15408,7 +15407,7 @@
     <row r="1147">
       <c r="B1147" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1147">
@@ -15556,7 +15555,7 @@
     <row r="1158">
       <c r="B1158" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C1158">
@@ -15608,7 +15607,7 @@
     <row r="1162">
       <c r="B1162" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1162">
@@ -15634,7 +15633,7 @@
     <row r="1164">
       <c r="B1164" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1164">
@@ -15660,7 +15659,7 @@
     <row r="1166">
       <c r="B1166" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C1166">
@@ -15686,7 +15685,7 @@
     <row r="1168">
       <c r="B1168" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1168">
@@ -15951,7 +15950,7 @@
     <row r="1188">
       <c r="B1188" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1188">
@@ -16003,7 +16002,7 @@
     <row r="1192">
       <c r="B1192" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1192">
@@ -16107,7 +16106,7 @@
     <row r="1200">
       <c r="B1200" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1200">
@@ -16133,7 +16132,7 @@
     <row r="1202">
       <c r="B1202" t="inlineStr">
         <is>
-          <t>Camarón de Tejeda</t>
+          <t>Camarón De Tejeda</t>
         </is>
       </c>
       <c r="C1202">
@@ -16185,7 +16184,7 @@
     <row r="1206">
       <c r="B1206" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1206">
@@ -16367,7 +16366,7 @@
     <row r="1220">
       <c r="B1220" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1220">
@@ -16380,7 +16379,7 @@
     <row r="1221">
       <c r="B1221" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C1221">
@@ -16400,7 +16399,7 @@
         <v>132</v>
       </c>
       <c r="D1222">
-        <v>0.009351753453772583</v>
+        <v>0.009351753453772585</v>
       </c>
     </row>
     <row r="1223">
@@ -16575,7 +16574,7 @@
     <row r="1236">
       <c r="B1236" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1236">
@@ -16588,7 +16587,7 @@
     <row r="1237">
       <c r="B1237" t="inlineStr">
         <is>
-          <t>Huiloapan de Cuauhtémoc</t>
+          <t>Huiloapan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C1237">
@@ -16601,7 +16600,7 @@
     <row r="1238">
       <c r="B1238" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1238">
@@ -16627,7 +16626,7 @@
     <row r="1240">
       <c r="B1240" t="inlineStr">
         <is>
-          <t>Ixhuacán de los Reyes</t>
+          <t>Ixhuacán De Los Reyes</t>
         </is>
       </c>
       <c r="C1240">
@@ -16640,7 +16639,7 @@
     <row r="1241">
       <c r="B1241" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1241">
@@ -16653,7 +16652,7 @@
     <row r="1242">
       <c r="B1242" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1242">
@@ -16666,7 +16665,7 @@
     <row r="1243">
       <c r="B1243" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C1243">
@@ -16783,7 +16782,7 @@
     <row r="1252">
       <c r="B1252" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1252">
@@ -16822,7 +16821,7 @@
     <row r="1255">
       <c r="B1255" t="inlineStr">
         <is>
-          <t>Landero y Coss</t>
+          <t>Landero Y Coss</t>
         </is>
       </c>
       <c r="C1255">
@@ -16842,20 +16841,20 @@
         <v>13</v>
       </c>
       <c r="D1256">
-        <v>0.0009210060219624513</v>
+        <v>0.0009210060219624512</v>
       </c>
     </row>
     <row r="1257">
       <c r="B1257" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1257">
         <v>13</v>
       </c>
       <c r="D1257">
-        <v>0.0009210060219624513</v>
+        <v>0.0009210060219624512</v>
       </c>
     </row>
     <row r="1258">
@@ -16913,7 +16912,7 @@
     <row r="1262">
       <c r="B1262" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1262">
@@ -16952,7 +16951,7 @@
     <row r="1265">
       <c r="B1265" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1265">
@@ -16991,7 +16990,7 @@
     <row r="1268">
       <c r="B1268" t="inlineStr">
         <is>
-          <t>Mixtla de Altamirano</t>
+          <t>Mixtla De Altamirano</t>
         </is>
       </c>
       <c r="C1268">
@@ -17134,7 +17133,7 @@
     <row r="1279">
       <c r="B1279" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C1279">
@@ -17173,7 +17172,7 @@
     <row r="1282">
       <c r="B1282" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1282">
@@ -17186,7 +17185,7 @@
     <row r="1283">
       <c r="B1283" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1283">
@@ -17225,7 +17224,7 @@
     <row r="1286">
       <c r="B1286" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1286">
@@ -17342,7 +17341,7 @@
     <row r="1295">
       <c r="B1295" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1295">
@@ -17355,7 +17354,7 @@
     <row r="1296">
       <c r="B1296" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1296">
@@ -17745,7 +17744,7 @@
     <row r="1326">
       <c r="B1326" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1326">
@@ -18028,7 +18027,7 @@
     <row r="1347">
       <c r="B1347" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1347">
@@ -18054,7 +18053,7 @@
     <row r="1349">
       <c r="B1349" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C1349">
@@ -18171,7 +18170,7 @@
     <row r="1358">
       <c r="B1358" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1358">
@@ -18288,7 +18287,7 @@
     <row r="1367">
       <c r="B1367" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C1367">
@@ -18301,7 +18300,7 @@
     <row r="1368">
       <c r="B1368" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1368">
@@ -18314,7 +18313,7 @@
     <row r="1369">
       <c r="B1369" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1369">
@@ -18334,7 +18333,7 @@
         <v>139</v>
       </c>
       <c r="D1370">
-        <v>0.009847679773290825</v>
+        <v>0.009847679773290824</v>
       </c>
     </row>
     <row r="1371">
@@ -18431,20 +18430,20 @@
     <row r="1378">
       <c r="B1378" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1378">
         <v>13</v>
       </c>
       <c r="D1378">
-        <v>0.0009210060219624513</v>
+        <v>0.0009210060219624512</v>
       </c>
     </row>
     <row r="1379">
       <c r="B1379" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1379">
@@ -18457,7 +18456,7 @@
     <row r="1380">
       <c r="B1380" t="inlineStr">
         <is>
-          <t>Trinidad García de la Cadena</t>
+          <t>Trinidad García De La Cadena</t>
         </is>
       </c>
       <c r="C1380">
@@ -18496,7 +18495,7 @@
     <row r="1383">
       <c r="B1383" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1383">
@@ -18582,41 +18581,6 @@
       </c>
       <c r="D1389">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1391">
-      <c r="A1391" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 1,114,005</t>
-        </is>
-      </c>
-    </row>
-    <row r="1392">
-      <c r="A1392" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1393">
-      <c r="A1393" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1394">
-      <c r="A1394" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1395">
-      <c r="A1395" t="inlineStr">
-        <is>
-          <t>Junio de 2016</t>
-        </is>
       </c>
     </row>
   </sheetData>
